--- a/xls/DataDescription.xlsx
+++ b/xls/DataDescription.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenzw\Desktop\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2864D31D-9A1A-4287-A4FB-600351347663}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6CB294-D7D1-43A7-9D38-94A849DF4826}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="696" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{C0B4244E-AA53-4CD5-8BBF-D92D0E015296}"/>
+    <workbookView xWindow="696" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{FC83933D-2A98-4EF2-B923-6B922430EB27}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,123 +37,93 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>TemperatureMAX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>RespirationMAX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PrecipitationTemperatureMAX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PrecipitationRespirationMAX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NonPrecipitationTemperatureMAX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NonPrecipitationRespirationMAX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TemperatureMIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>RespirationMIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PrecipitationTemperatureMIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PrecipitationRespirationMIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NonPrecipitationTemperatureMIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NonPrecipitationRespirationMIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TemperatureMEAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>RespirationMEAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PrecipitationTemperatureMEAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PrecipitationRespirationMEAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NonPrecipitationTemperatureMEAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NonPrecipitationRespirationMEAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TemperatureMEDIAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>RespirationMEDIAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PrecipitationTemperatureMEDIAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PrecipitationRespirationMEDIAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NonPrecipitationTemperatureMEDIAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NonPrecipitationRespirationMEDIAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TemperatureMODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>RespirationMODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PrecipitationTemperatureMODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PrecipitationRespirationMODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NonPrecipitationTemperatureMODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NonPrecipitationRespirationMODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -516,11 +486,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D396481-FBB7-4CBA-B440-519181A52D4D}">
-  <dimension ref="B1:AE7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C96FFC6C-BE1D-4115-B5FF-0E4808A98B30}">
+  <dimension ref="B1:AE5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AE7"/>
+      <selection activeCell="B2" sqref="B2:AE5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -619,91 +589,91 @@
     </row>
     <row r="2" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>19.260000000000002</v>
+        <v>26.1</v>
       </c>
       <c r="C2">
         <v>13.5464</v>
       </c>
       <c r="D2">
-        <v>19.260000000000002</v>
+        <v>24.94</v>
       </c>
       <c r="E2">
         <v>13.3912</v>
       </c>
       <c r="F2">
-        <v>18.940000000000001</v>
+        <v>26.1</v>
       </c>
       <c r="G2">
         <v>13.5464</v>
       </c>
       <c r="H2">
-        <v>1.81</v>
+        <v>-7.84</v>
       </c>
       <c r="I2">
         <v>5.07231E-3</v>
       </c>
       <c r="J2">
-        <v>2</v>
+        <v>-3.26</v>
       </c>
       <c r="K2">
         <v>1.16574E-2</v>
       </c>
       <c r="L2">
-        <v>1.81</v>
+        <v>-7.84</v>
       </c>
       <c r="M2">
         <v>5.07231E-3</v>
       </c>
       <c r="N2">
-        <v>9.6759679617453607</v>
+        <v>8.7093320980275326</v>
       </c>
       <c r="O2">
         <v>3.6595261163492281</v>
       </c>
       <c r="P2">
-        <v>9.5570811921891039</v>
+        <v>8.5349318259677815</v>
       </c>
       <c r="Q2">
         <v>3.5392370649843392</v>
       </c>
       <c r="R2">
-        <v>9.7396900477414547</v>
+        <v>8.8028088505325055</v>
       </c>
       <c r="S2">
         <v>3.7236311886125044</v>
       </c>
       <c r="T2">
-        <v>8.7100000000000009</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="U2">
         <v>3.4740549999999999</v>
       </c>
       <c r="V2">
-        <v>8.4600000000000009</v>
+        <v>8.39</v>
       </c>
       <c r="W2">
         <v>3.3304499999999999</v>
       </c>
       <c r="X2">
-        <v>8.8449999999999989</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="Y2">
         <v>3.5553499999999998</v>
       </c>
       <c r="Z2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AA2">
         <v>2.5</v>
       </c>
       <c r="AB2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AC2">
         <v>2.5</v>
       </c>
       <c r="AD2">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE2">
         <v>2.5</v>
@@ -711,91 +681,91 @@
     </row>
     <row r="3" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B3">
-        <v>17.899999999999999</v>
+        <v>28.33</v>
       </c>
       <c r="C3">
         <v>16.551100000000002</v>
       </c>
       <c r="D3">
-        <v>17.68</v>
+        <v>25.84</v>
       </c>
       <c r="E3">
         <v>16.551100000000002</v>
       </c>
       <c r="F3">
-        <v>17.899999999999999</v>
+        <v>28.33</v>
       </c>
       <c r="G3">
         <v>15.392200000000001</v>
       </c>
       <c r="H3">
-        <v>5.96</v>
+        <v>-4.9580000000000002</v>
       </c>
       <c r="I3">
         <v>6.6536999999999998E-4</v>
       </c>
       <c r="J3">
-        <v>5.96</v>
+        <v>-4.4279999999999999</v>
       </c>
       <c r="K3">
         <v>6.6536999999999998E-4</v>
       </c>
       <c r="L3">
-        <v>6.0069999999999997</v>
+        <v>-4.9580000000000002</v>
       </c>
       <c r="M3">
         <v>5.4486999999999999E-3</v>
       </c>
       <c r="N3">
-        <v>11.202053915122518</v>
+        <v>9.7994351464434732</v>
       </c>
       <c r="O3">
         <v>2.7950124538319807</v>
       </c>
       <c r="P3">
-        <v>10.924340057636888</v>
+        <v>9.4294572526416935</v>
       </c>
       <c r="Q3">
         <v>2.7707788422857145</v>
       </c>
       <c r="R3">
-        <v>11.294080057297506</v>
+        <v>9.9220348559605274</v>
       </c>
       <c r="S3">
         <v>2.80297121365617</v>
       </c>
       <c r="T3">
-        <v>10.82</v>
+        <v>9.84</v>
       </c>
       <c r="U3">
         <v>2.6642799999999998</v>
       </c>
       <c r="V3">
-        <v>9.6449999999999996</v>
+        <v>9.120000000000001</v>
       </c>
       <c r="W3">
         <v>2.569375</v>
       </c>
       <c r="X3">
-        <v>10.91</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="Y3">
         <v>2.7012400000000003</v>
       </c>
       <c r="Z3">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="AA3">
         <v>3</v>
       </c>
       <c r="AB3">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="AC3">
         <v>1.5</v>
       </c>
       <c r="AD3">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="AE3">
         <v>3</v>
@@ -803,91 +773,91 @@
     </row>
     <row r="4" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>22.207000000000001</v>
+        <v>25.571999999999999</v>
       </c>
       <c r="C4">
         <v>12.574</v>
       </c>
       <c r="D4">
-        <v>22.204999999999998</v>
+        <v>24.731000000000002</v>
       </c>
       <c r="E4">
         <v>11.5068</v>
       </c>
       <c r="F4">
-        <v>22.207000000000001</v>
+        <v>25.571999999999999</v>
       </c>
       <c r="G4">
         <v>12.574</v>
       </c>
       <c r="H4">
-        <v>1.512</v>
+        <v>-10.71</v>
       </c>
       <c r="I4">
         <v>0.25119599999999997</v>
       </c>
       <c r="J4">
-        <v>1.5409999999999999</v>
+        <v>-3.54</v>
       </c>
       <c r="K4">
         <v>0.25119599999999997</v>
       </c>
       <c r="L4">
-        <v>1.512</v>
+        <v>-10.71</v>
       </c>
       <c r="M4">
         <v>0.27598800000000001</v>
       </c>
       <c r="N4">
-        <v>9.4866255685898704</v>
+        <v>8.2999154895858265</v>
       </c>
       <c r="O4">
         <v>2.1940223239166858</v>
       </c>
       <c r="P4">
-        <v>9.9992869955157175</v>
+        <v>9.0278417040358399</v>
       </c>
       <c r="Q4">
         <v>2.0798208493273544</v>
       </c>
       <c r="R4">
-        <v>9.2999444807315612</v>
+        <v>8.0348476485956635</v>
       </c>
       <c r="S4">
         <v>2.2356077726975796</v>
       </c>
       <c r="T4">
-        <v>8.3649999999999984</v>
+        <v>8.23</v>
       </c>
       <c r="U4">
         <v>1.5684849999999999</v>
       </c>
       <c r="V4">
-        <v>10.7</v>
+        <v>8.81</v>
       </c>
       <c r="W4">
         <v>1.6443000000000001</v>
       </c>
       <c r="X4">
-        <v>7.0314999999999994</v>
+        <v>7.5270000000000001</v>
       </c>
       <c r="Y4">
         <v>1.5157</v>
       </c>
       <c r="Z4">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AA4">
         <v>1</v>
       </c>
       <c r="AB4">
-        <v>1.5</v>
+        <v>9</v>
       </c>
       <c r="AC4">
         <v>1.5</v>
       </c>
       <c r="AD4">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AE4">
         <v>1</v>
@@ -895,278 +865,94 @@
     </row>
     <row r="5" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B5">
-        <v>20.84</v>
+        <v>24.74</v>
       </c>
       <c r="C5">
         <v>5.0173399999999999</v>
       </c>
       <c r="D5">
-        <v>20.84</v>
+        <v>20.41</v>
       </c>
       <c r="E5">
         <v>4.1919599999999999</v>
       </c>
       <c r="F5">
-        <v>20.53</v>
+        <v>24.74</v>
       </c>
       <c r="G5">
         <v>5.0173399999999999</v>
       </c>
       <c r="H5">
-        <v>-0.15</v>
+        <v>-5.78</v>
       </c>
       <c r="I5">
         <v>0.11125500000000001</v>
       </c>
       <c r="J5">
-        <v>-0.05</v>
+        <v>-1.59</v>
       </c>
       <c r="K5">
         <v>0.11125500000000001</v>
       </c>
       <c r="L5">
-        <v>-0.15</v>
+        <v>-5.78</v>
       </c>
       <c r="M5">
         <v>0.118772</v>
       </c>
       <c r="N5">
-        <v>9.8094251016989755</v>
+        <v>8.9716192869107498</v>
       </c>
       <c r="O5">
         <v>1.3797711349766699</v>
       </c>
       <c r="P5">
-        <v>9.5063000407664244</v>
+        <v>9.00124663677129</v>
       </c>
       <c r="Q5">
         <v>1.2762660469004921</v>
       </c>
       <c r="R5">
-        <v>9.935346486028795</v>
+        <v>8.9593117696866926</v>
       </c>
       <c r="S5">
         <v>1.4227507244707904</v>
       </c>
       <c r="T5">
-        <v>7.43</v>
+        <v>8.8515000000000015</v>
       </c>
       <c r="U5">
         <v>1.16299</v>
       </c>
       <c r="V5">
-        <v>6.77</v>
+        <v>8.77</v>
       </c>
       <c r="W5">
         <v>1.0670199999999999</v>
       </c>
       <c r="X5">
-        <v>7.6</v>
+        <v>8.93</v>
       </c>
       <c r="Y5">
         <v>1.19228</v>
       </c>
       <c r="Z5">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="AA5">
         <v>1</v>
       </c>
       <c r="AB5">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="AC5">
         <v>1</v>
       </c>
       <c r="AD5">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AE5">
         <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>16.95</v>
-      </c>
-      <c r="C6">
-        <v>13.467700000000001</v>
-      </c>
-      <c r="D6">
-        <v>16.95</v>
-      </c>
-      <c r="E6">
-        <v>8.4436699999999991</v>
-      </c>
-      <c r="F6">
-        <v>16.329999999999998</v>
-      </c>
-      <c r="G6">
-        <v>13.467700000000001</v>
-      </c>
-      <c r="H6">
-        <v>-0.7</v>
-      </c>
-      <c r="I6">
-        <v>3.5706100000000001E-3</v>
-      </c>
-      <c r="J6">
-        <v>1.2</v>
-      </c>
-      <c r="K6">
-        <v>6.9162800000000003E-3</v>
-      </c>
-      <c r="L6">
-        <v>-0.7</v>
-      </c>
-      <c r="M6">
-        <v>3.5706100000000001E-3</v>
-      </c>
-      <c r="N6">
-        <v>7.6602461947329887</v>
-      </c>
-      <c r="O6">
-        <v>2.1722591786953127</v>
-      </c>
-      <c r="P6">
-        <v>8.05052901785713</v>
-      </c>
-      <c r="Q6">
-        <v>2.1804539850898177</v>
-      </c>
-      <c r="R6">
-        <v>7.4725753130590036</v>
-      </c>
-      <c r="S6">
-        <v>2.1682881009503046</v>
-      </c>
-      <c r="T6">
-        <v>8.5</v>
-      </c>
-      <c r="U6">
-        <v>2.0032899999999998</v>
-      </c>
-      <c r="V6">
-        <v>8.4</v>
-      </c>
-      <c r="W6">
-        <v>1.9070999999999998</v>
-      </c>
-      <c r="X6">
-        <v>8.5</v>
-      </c>
-      <c r="Y6">
-        <v>2.0712100000000002</v>
-      </c>
-      <c r="Z6">
-        <v>9</v>
-      </c>
-      <c r="AA6">
-        <v>1</v>
-      </c>
-      <c r="AB6">
-        <v>9.5</v>
-      </c>
-      <c r="AC6">
-        <v>1</v>
-      </c>
-      <c r="AD6">
-        <v>9</v>
-      </c>
-      <c r="AE6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>16.8</v>
-      </c>
-      <c r="C7">
-        <v>19.352599999999999</v>
-      </c>
-      <c r="D7">
-        <v>15.9</v>
-      </c>
-      <c r="E7">
-        <v>12.815200000000001</v>
-      </c>
-      <c r="F7">
-        <v>16.8</v>
-      </c>
-      <c r="G7">
-        <v>19.352599999999999</v>
-      </c>
-      <c r="H7">
-        <v>1.577</v>
-      </c>
-      <c r="I7">
-        <v>1.8159999999999999E-2</v>
-      </c>
-      <c r="J7">
-        <v>1.577</v>
-      </c>
-      <c r="K7">
-        <v>1.8159999999999999E-2</v>
-      </c>
-      <c r="L7">
-        <v>1.58</v>
-      </c>
-      <c r="M7">
-        <v>3.5473699999999997E-2</v>
-      </c>
-      <c r="N7">
-        <v>7.9126049928332378</v>
-      </c>
-      <c r="O7">
-        <v>3.4787797475551181</v>
-      </c>
-      <c r="P7">
-        <v>7.4902711552612296</v>
-      </c>
-      <c r="Q7">
-        <v>3.2928759723042931</v>
-      </c>
-      <c r="R7">
-        <v>8.1156299964626832</v>
-      </c>
-      <c r="S7">
-        <v>3.5681032790277114</v>
-      </c>
-      <c r="T7">
-        <v>7.4674999999999994</v>
-      </c>
-      <c r="U7">
-        <v>3.0693800000000002</v>
-      </c>
-      <c r="V7">
-        <v>6.9180000000000001</v>
-      </c>
-      <c r="W7">
-        <v>2.6809450000000004</v>
-      </c>
-      <c r="X7">
-        <v>7.67</v>
-      </c>
-      <c r="Y7">
-        <v>3.3662900000000002</v>
-      </c>
-      <c r="Z7">
-        <v>3.5</v>
-      </c>
-      <c r="AA7">
-        <v>2</v>
-      </c>
-      <c r="AB7">
-        <v>3.5</v>
-      </c>
-      <c r="AC7">
-        <v>2</v>
-      </c>
-      <c r="AD7">
-        <v>3.5</v>
-      </c>
-      <c r="AE7">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
